--- a/biology/Zoologie/Bucculatrix_domicola/Bucculatrix_domicola.xlsx
+++ b/biology/Zoologie/Bucculatrix_domicola/Bucculatrix_domicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bucculatrix domicola est une espèce de papillons de nuit de la famille des Bucculatricidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bucculatrix domicola se rencontre en États-Unis où il a été signalé dans l'Ohio et le New Jersey.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure des ailes est de 7,0 à 7,5 mm.
-Les larves se nourrissent de Chêne des marais et de Quercus shumardii. Elles minent les feuilles de leurs plantes hôtes[1].
+Les larves se nourrissent de Chêne des marais et de Quercus shumardii. Elles minent les feuilles de leurs plantes hôtes.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bucculatrix domicola a été décrite en 1963 par l'entomologiste américaine Annette Frances Braun (d) (1884-1978)[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bucculatrix domicola a été décrite en 1963 par l'entomologiste américaine Annette Frances Braun (d) (1884-1978),.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) A. F. Braun, « The Genus Bucculatrix in America North of Mexico (Microlepidoptera) », Memoirs of the American Entomological Society, Philadelphie, vol. 18,‎ 1963, p. 1-208 (ISSN 0065-8170, lire en ligne, consulté le 31 décembre 2023).</t>
         </is>
